--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,79 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-4.081261346001524</t>
+    <t>-4.657691821664619</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.668826785333615</t>
-  </si>
-  <si>
-    <t>-0.7247670501405</t>
-  </si>
-  <si>
-    <t>-0.08889328544326014</t>
+    <t>0.24011722556595838</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.054839693406650514</t>
   </si>
   <si>
     <t>-4 + y_1</t>
   </si>
   <si>
-    <t>0.0812613460015239</t>
-  </si>
-  <si>
-    <t>0.35490416055703744</t>
-  </si>
-  <si>
-    <t>0.9722415929389604</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.6576918216646188</t>
+  </si>
+  <si>
+    <t>0.1083236165390392</t>
+  </si>
+  <si>
+    <t>0.14589785305209468</t>
   </si>
   <si>
     <t>-16 - 2x + 5y_1</t>
   </si>
   <si>
-    <t>-6.367677000935963</t>
+    <t>-4.4622558915346</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2579054977982502</t>
-  </si>
-  <si>
-    <t>0.07563513154992674</t>
+    <t>0.1102758390135593</t>
+  </si>
+  <si>
+    <t>0.4290202878062076</t>
+  </si>
+  <si>
+    <t>0.9920904723087388</t>
   </si>
   <si>
     <t>-48 + 8x + y_1</t>
   </si>
   <si>
-    <t>-0.8228037302241322</t>
+    <t>3.6605518210954013</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.37312343383402724</t>
-  </si>
-  <si>
-    <t>0.26380381271421827</t>
-  </si>
-  <si>
-    <t>0.8067944953885262</t>
+    <t>0.3168885247170169</t>
+  </si>
+  <si>
+    <t>0.8178656406623357</t>
   </si>
   <si>
     <t>12 - 2x - 2y_1</t>
   </si>
   <si>
-    <t>-6.936506422946634</t>
-  </si>
-  <si>
-    <t>0.9717867614749729</t>
-  </si>
-  <si>
-    <t>0.4417356545338106</t>
+    <t>-9.066098643186933</t>
+  </si>
+  <si>
+    <t>0.4167665579899481</t>
+  </si>
+  <si>
+    <t>0.30309304447134744</t>
   </si>
   <si>
     <t>x</t>
@@ -150,19 +147,19 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.386991865471793</t>
-  </si>
-  <si>
-    <t>4.081261346001524</t>
-  </si>
-  <si>
-    <t>2.9228731878030403</t>
+    <t>5.875357499928848</t>
+  </si>
+  <si>
+    <t>4.657691821664619</t>
+  </si>
+  <si>
+    <t>2.112315956957238</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.594845224901245</t>
+    <t>1.0970590052220022</t>
   </si>
   <si>
     <t>-0.0</t>
@@ -171,10 +168,10 @@
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.07568892954627149</t>
-  </si>
-  <si>
-    <t>1.5444831955243086</t>
+    <t>-4.68488454968627</t>
+  </si>
+  <si>
+    <t>-0.10886493274546893</t>
   </si>
   <si>
     <t>-2.0</t>
@@ -651,27 +648,27 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -691,27 +688,27 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -729,24 +726,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +761,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -792,22 +789,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +822,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
@@ -66,76 +66,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-4.657691821664619</t>
+    <t>-4.382729079133727</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.24011722556595838</t>
+    <t>0.0866877650392671</t>
+  </si>
+  <si>
+    <t>0.746488456643626</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.054839693406650514</t>
-  </si>
-  <si>
     <t>-4 + y_1</t>
   </si>
   <si>
-    <t>0.6576918216646188</t>
-  </si>
-  <si>
-    <t>0.1083236165390392</t>
-  </si>
-  <si>
-    <t>0.14589785305209468</t>
-  </si>
-  <si>
-    <t>-16 - 2x + 5y_1</t>
-  </si>
-  <si>
-    <t>-4.4622558915346</t>
+    <t>0.38272907913372656</t>
+  </si>
+  <si>
+    <t>0.9648587319705634</t>
+  </si>
+  <si>
+    <t>0.6119990159669402</t>
+  </si>
+  <si>
+    <t>-16 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-13.81788203899294</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.1102758390135593</t>
-  </si>
-  <si>
-    <t>0.4290202878062076</t>
-  </si>
-  <si>
-    <t>0.9920904723087388</t>
+    <t>0.9761226555169311</t>
+  </si>
+  <si>
+    <t>0.607732950283753</t>
   </si>
   <si>
     <t>-48 + 8x + y_1</t>
   </si>
   <si>
-    <t>3.6605518210954013</t>
+    <t>3.3894519012124054</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.3168885247170169</t>
-  </si>
-  <si>
-    <t>0.8178656406623357</t>
+    <t>0.8143958706897286</t>
+  </si>
+  <si>
+    <t>0.09323959926382419</t>
   </si>
   <si>
     <t>12 - 2x - 2y_1</t>
   </si>
   <si>
-    <t>-9.066098643186933</t>
-  </si>
-  <si>
-    <t>0.4167665579899481</t>
-  </si>
-  <si>
-    <t>0.30309304447134744</t>
+    <t>-8.517138863787123</t>
+  </si>
+  <si>
+    <t>0.23927405565041526</t>
+  </si>
+  <si>
+    <t>-0.6770049979448282</t>
+  </si>
+  <si>
+    <t>-0.5008550602329267</t>
   </si>
   <si>
     <t>x</t>
@@ -147,31 +147,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875357499928848</t>
-  </si>
-  <si>
-    <t>4.657691821664619</t>
-  </si>
-  <si>
-    <t>2.112315956957238</t>
+    <t>5.875840352759835</t>
+  </si>
+  <si>
+    <t>4.382729079133727</t>
+  </si>
+  <si>
+    <t>2.387767396848251</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.0970590052220022</t>
-  </si>
-  <si>
-    <t>-0.0</t>
+    <t>-1.1901413818371251</t>
+  </si>
+  <si>
+    <t>-3.9044906220677245</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.68488454968627</t>
-  </si>
-  <si>
-    <t>-0.10886493274546893</t>
+    <t>-1.09992679000025</t>
+  </si>
+  <si>
+    <t>2.2992388614901453</t>
   </si>
   <si>
     <t>-2.0</t>
@@ -645,10 +645,10 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -665,47 +665,47 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,76 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-4.382729079133727</t>
+    <t>7.35 - y_1</t>
+  </si>
+  <si>
+    <t>-7.35</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.0866877650392671</t>
-  </si>
-  <si>
-    <t>0.746488456643626</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-4 + y_1</t>
-  </si>
-  <si>
-    <t>0.38272907913372656</t>
-  </si>
-  <si>
-    <t>0.9648587319705634</t>
-  </si>
-  <si>
-    <t>0.6119990159669402</t>
-  </si>
-  <si>
-    <t>-16 - 2x + y_1 + 4y_2</t>
-  </si>
-  <si>
-    <t>-13.81788203899294</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-1.3</t>
+  </si>
+  <si>
+    <t>-7.35 + y_1</t>
+  </si>
+  <si>
+    <t>3.3499999999999996</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>-2.1</t>
+  </si>
+  <si>
+    <t>-7.199999999999999</t>
+  </si>
+  <si>
+    <t>-3.7499999999999964 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-12.250000000000004</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9761226555169311</t>
-  </si>
-  <si>
-    <t>0.607732950283753</t>
-  </si>
-  <si>
-    <t>-48 + 8x + y_1</t>
-  </si>
-  <si>
-    <t>3.3894519012124054</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>-8.8</t>
+  </si>
+  <si>
+    <t>-6.4</t>
+  </si>
+  <si>
+    <t>-67.22 + 8x + y_1</t>
+  </si>
+  <si>
+    <t>18.550000000000004</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8143958706897286</t>
-  </si>
-  <si>
-    <t>0.09323959926382419</t>
-  </si>
-  <si>
-    <t>12 - 2x - 2y_1</t>
-  </si>
-  <si>
-    <t>-8.517138863787123</t>
-  </si>
-  <si>
-    <t>0.23927405565041526</t>
-  </si>
-  <si>
-    <t>-0.6770049979448282</t>
-  </si>
-  <si>
-    <t>-0.5008550602329267</t>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-5.5 - 2x - 2y_1</t>
+  </si>
+  <si>
+    <t>-17.5</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-5.5</t>
   </si>
   <si>
     <t>x</t>
@@ -147,34 +159,34 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.875840352759835</t>
-  </si>
-  <si>
-    <t>4.382729079133727</t>
-  </si>
-  <si>
-    <t>2.387767396848251</t>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.1901413818371251</t>
-  </si>
-  <si>
-    <t>-3.9044906220677245</t>
+    <t>0.8700000000000001</t>
+  </si>
+  <si>
+    <t>-2.92</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.09992679000025</t>
-  </si>
-  <si>
-    <t>2.2992388614901453</t>
-  </si>
-  <si>
-    <t>-2.0</t>
+    <t>-29.400000000000002</t>
+  </si>
+  <si>
+    <t>9.500000000000002</t>
+  </si>
+  <si>
+    <t>33.2</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -613,102 +625,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -726,24 +738,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -761,17 +773,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -789,22 +801,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,82 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>7.35 - y_1</t>
-  </si>
-  <si>
-    <t>-7.35</t>
+    <t>8.600000000000001 - y_1</t>
+  </si>
+  <si>
+    <t>-8.600000000000001</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-2.8000000000000003</t>
-  </si>
-  <si>
-    <t>-1.3</t>
-  </si>
-  <si>
-    <t>-7.35 + y_1</t>
-  </si>
-  <si>
-    <t>3.3499999999999996</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>-2.1</t>
-  </si>
-  <si>
-    <t>-7.199999999999999</t>
-  </si>
-  <si>
-    <t>-3.7499999999999964 - 2x + y_1 + 4y_2</t>
-  </si>
-  <si>
-    <t>-12.250000000000004</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>-8.600000000000001 + y_1</t>
+  </si>
+  <si>
+    <t>4.600000000000001</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>-5.000000000000002 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-10.999999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>-8.8</t>
-  </si>
-  <si>
-    <t>-6.4</t>
-  </si>
-  <si>
-    <t>-67.22 + 8x + y_1</t>
-  </si>
-  <si>
-    <t>18.550000000000004</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>-65.87 + 8x + y_1</t>
+  </si>
+  <si>
+    <t>17.4</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>-5.5 - 2x - 2y_1</t>
-  </si>
-  <si>
-    <t>-17.5</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-5.5</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>-7.400000000000002 - 2x - 2y_1</t>
+  </si>
+  <si>
+    <t>-19.400000000000002</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>-7.9</t>
+  </si>
+  <si>
+    <t>-1.0</t>
   </si>
   <si>
     <t>x</t>
@@ -159,34 +153,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>8.600000000000001</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.8700000000000001</t>
-  </si>
-  <si>
-    <t>-2.92</t>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>-0.96</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-29.400000000000002</t>
-  </si>
-  <si>
-    <t>9.500000000000002</t>
-  </si>
-  <si>
-    <t>33.2</t>
+    <t>-53.599999999999994</t>
+  </si>
+  <si>
+    <t>-31.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -660,67 +651,67 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -738,24 +729,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -773,17 +764,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -801,22 +792,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.1/Experimentos_Generador/(ex9.1.1(Linear))__C_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,118 +66,103 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>8.600000000000001 - y_1</t>
-  </si>
-  <si>
-    <t>-8.600000000000001</t>
+    <t>5.0 - y_1</t>
+  </si>
+  <si>
+    <t>-5.0</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>0.35</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>-8.600000000000001 + y_1</t>
-  </si>
-  <si>
-    <t>4.600000000000001</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>-5.000000000000002 - 2x + y_1 + 4y_2</t>
-  </si>
-  <si>
-    <t>-10.999999999999998</t>
+    <t>-5.0 + y_1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>-5.5</t>
+  </si>
+  <si>
+    <t>-6.2</t>
+  </si>
+  <si>
+    <t>3.0000000000000036 - 2x + y_1 + 4y_2</t>
+  </si>
+  <si>
+    <t>-19.000000000000004</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.24</t>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>-70.46 + 8x + y_1</t>
+  </si>
+  <si>
+    <t>21.799999999999997</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>-2.1999999999999993 - 2x - 2y_1</t>
+  </si>
+  <si>
+    <t>-14.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y_1</t>
+  </si>
+  <si>
+    <t>y_2</t>
+  </si>
+  <si>
+    <t>8.1</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>-65.87 + 8x + y_1</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>-7.400000000000002 - 2x - 2y_1</t>
-  </si>
-  <si>
-    <t>-19.400000000000002</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>-7.9</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y_1</t>
-  </si>
-  <si>
-    <t>y_2</t>
-  </si>
-  <si>
-    <t>8.600000000000001</t>
-  </si>
-  <si>
-    <t>2.65</t>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>-0.96</t>
+    <t>-0.9100000000000001</t>
+  </si>
+  <si>
+    <t>-3.12</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-53.599999999999994</t>
-  </si>
-  <si>
-    <t>-31.0</t>
-  </si>
-  <si>
-    <t>-22.0</t>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>-2.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -631,27 +616,27 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -668,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -676,42 +661,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -729,24 +714,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +749,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -792,22 +777,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
